--- a/biology/Botanique/Ficus_drupacea/Ficus_drupacea.xlsx
+++ b/biology/Botanique/Ficus_drupacea/Ficus_drupacea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Ficus drupacea est une espèce de plantes à fleurs de la famille des Moraceae. C'est un arbre tropical originaire de l'Asie du Sud-Est et du nord-est de l'Australie. 
@@ -513,28 +525,30 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il fut décrit par Carl Peter Thunberg dans Ficus genus, dissertatione botanica (es) en 1786.
 Ficus drupacea a pour synonymes : 
-Ficus auranticarpa Elmer[2]
-Ficus chrysochlamys K.Schum. &amp; Lauterb.[2]
-Ficus drupacea var. drupacea[2]
-Ficus ellipsoidea F.Muell. ex Benth.[2]
-Ficus gonia Buch.-Ham.[2]
-Ficus indica L.[2]
-Ficus mysorensis B.Heyne ex Roth[2]
-Ficus payapa Blanco[2]
-Ficus rupestris Buch.-Ham.[2]
-Ficus subrepanda (Wall. ex King) King[2]
-Ficus vidaliana Warb.[2]
-Urostigma bicorne Miq.[2]
-Urostigma chrysotrix Miq.[2]
-Urostigma dasycarpum Miq.[2]
-Urostigma drupaceum (Thunb.) Miq.[3]
-Urostigma mysorense Miq.[2]
-Urostigma pilosum Miq.[2]
-Urostigma subcuspidatum Miq.[2]
+Ficus auranticarpa Elmer
+Ficus chrysochlamys K.Schum. &amp; Lauterb.
+Ficus drupacea var. drupacea
+Ficus ellipsoidea F.Muell. ex Benth.
+Ficus gonia Buch.-Ham.
+Ficus indica L.
+Ficus mysorensis B.Heyne ex Roth
+Ficus payapa Blanco
+Ficus rupestris Buch.-Ham.
+Ficus subrepanda (Wall. ex King) King
+Ficus vidaliana Warb.
+Urostigma bicorne Miq.
+Urostigma chrysotrix Miq.
+Urostigma dasycarpum Miq.
+Urostigma drupaceum (Thunb.) Miq.
+Urostigma mysorense Miq.
+Urostigma pilosum Miq.
+Urostigma subcuspidatum Miq.
 			Photo prise près d'Iritty dans le Kerala, en Inde.
 			Ficus drupacea en bonsaï au jardin botanique et zoologique de Saigon.
 			Les fruits.
@@ -567,9 +581,11 @@
           <t>Liste des variétés</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon Tropicos                                           (23 août 2020)[1] (Attention liste brute contenant possiblement des synonymes) :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon Tropicos                                           (23 août 2020) (Attention liste brute contenant possiblement des synonymes) :
 variété Ficus drupacea var. drupacea
 variété Ficus drupacea var. glabrata Corner
 variété Ficus drupacea var. pedicellata Corner
